--- a/files/MessyData.xlsx
+++ b/files/MessyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Shippensburg\Spring 2022\Eco 393 Regional Economics\Week05-Tidydata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\App-teaching\FTSM-2\Slides\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32727684-7FCD-4D65-AD70-466A138CBA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0581488-C9EE-4D76-A885-F2C2E3DB8EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{CB020DAF-A1B6-43C1-8A7F-024548D5F069}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB020DAF-A1B6-43C1-8A7F-024548D5F069}"/>
   </bookViews>
   <sheets>
     <sheet name="table-1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Mary Johnson</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>Treatment_type</t>
@@ -474,6 +471,9 @@
   <si>
     <t>Wyoming</t>
   </si>
+  <si>
+    <t>person</t>
+  </si>
 </sst>
 </file>
 
@@ -828,9 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0709A7DB-EE08-43A4-AB0B-D6B51D1E95D9}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -839,7 +837,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -901,7 +899,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -958,30 +956,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>27</v>
@@ -1004,7 +1002,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -1027,7 +1025,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>27</v>
@@ -1050,7 +1048,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>418</v>
@@ -1073,7 +1071,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -1096,7 +1094,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>575</v>
@@ -1119,7 +1117,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1142,7 +1140,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>228</v>
@@ -1165,7 +1163,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -1188,7 +1186,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>19</v>
@@ -1226,28 +1224,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1255,10 +1253,10 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="1">
         <v>0.18194444444444444</v>
@@ -1281,10 +1279,10 @@
         <v>2000</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="1">
         <v>0.13541666666666666</v>
@@ -1307,10 +1305,10 @@
         <v>2000</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
       </c>
       <c r="D4" s="1">
         <v>0.16180555555555556</v>
@@ -1333,10 +1331,10 @@
         <v>2000</v>
       </c>
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
       </c>
       <c r="D5" s="1">
         <v>0.14166666666666666</v>
@@ -1359,10 +1357,10 @@
         <v>2000</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>0.15555555555555556</v>
@@ -1385,10 +1383,10 @@
         <v>2000</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="1">
         <v>0.17708333333333334</v>
@@ -1411,10 +1409,10 @@
         <v>2000</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1">
         <v>0.16874999999999998</v>
@@ -1437,10 +1435,10 @@
         <v>2000</v>
       </c>
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
       </c>
       <c r="D9" s="1">
         <v>0.22916666666666666</v>
@@ -1475,39 +1473,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>55</v>
-      </c>
-      <c r="J1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -1539,7 +1537,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -1571,7 +1569,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -1603,7 +1601,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -1635,7 +1633,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -1667,7 +1665,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -1699,7 +1697,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -1731,7 +1729,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -1763,7 +1761,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -1795,7 +1793,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>2000</v>
@@ -1842,45 +1840,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>74</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>75</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>76</v>
-      </c>
-      <c r="L1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>2010</v>
@@ -1889,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -1918,7 +1916,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>2010</v>
@@ -1927,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -1956,7 +1954,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>2010</v>
@@ -1965,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1994,7 +1992,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>2010</v>
@@ -2003,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -2032,7 +2030,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>2010</v>
@@ -2041,7 +2039,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -2070,7 +2068,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -2079,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -2108,7 +2106,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8">
         <v>2010</v>
@@ -2117,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -2146,7 +2144,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9">
         <v>2010</v>
@@ -2155,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
@@ -2184,7 +2182,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>2010</v>
@@ -2193,7 +2191,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
@@ -2222,7 +2220,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>2010</v>
@@ -2231,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -2267,7 +2265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D57E4F9-5E57-4EFC-ADCF-D77CE4C20D9B}">
   <dimension ref="A1:M562"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2275,48 +2273,48 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>86</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>87</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>88</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>89</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>90</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>91</v>
-      </c>
-      <c r="M1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>2010</v>
@@ -2357,7 +2355,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>2011</v>
@@ -2398,7 +2396,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4">
         <v>2012</v>
@@ -2439,7 +2437,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>2013</v>
@@ -2480,7 +2478,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <v>2014</v>
@@ -2521,7 +2519,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>2015</v>
@@ -2562,7 +2560,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8">
         <v>2016</v>
@@ -2603,7 +2601,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9">
         <v>2017</v>
@@ -2644,7 +2642,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>2018</v>
@@ -2685,7 +2683,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>2019</v>
@@ -2726,7 +2724,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12">
         <v>2020</v>
@@ -2767,7 +2765,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13">
         <v>2010</v>
@@ -2808,7 +2806,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14">
         <v>2011</v>
@@ -2849,7 +2847,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15">
         <v>2012</v>
@@ -2890,7 +2888,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16">
         <v>2013</v>
@@ -2931,7 +2929,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <v>2014</v>
@@ -2972,7 +2970,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>2015</v>
@@ -3013,7 +3011,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -3054,7 +3052,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20">
         <v>2017</v>
@@ -3095,7 +3093,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21">
         <v>2018</v>
@@ -3136,7 +3134,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22">
         <v>2019</v>
@@ -3177,7 +3175,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23">
         <v>2020</v>
@@ -3218,7 +3216,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24">
         <v>2010</v>
@@ -3259,7 +3257,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25">
         <v>2011</v>
@@ -3300,7 +3298,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26">
         <v>2012</v>
@@ -3341,7 +3339,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27">
         <v>2013</v>
@@ -3382,7 +3380,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28">
         <v>2014</v>
@@ -3423,7 +3421,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29">
         <v>2015</v>
@@ -3464,7 +3462,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30">
         <v>2016</v>
@@ -3505,7 +3503,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31">
         <v>2017</v>
@@ -3546,7 +3544,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32">
         <v>2018</v>
@@ -3587,7 +3585,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <v>2019</v>
@@ -3628,7 +3626,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34">
         <v>2020</v>
@@ -3669,7 +3667,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35">
         <v>2010</v>
@@ -3710,7 +3708,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36">
         <v>2011</v>
@@ -3751,7 +3749,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37">
         <v>2012</v>
@@ -3792,7 +3790,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38">
         <v>2013</v>
@@ -3833,7 +3831,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39">
         <v>2014</v>
@@ -3874,7 +3872,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40">
         <v>2015</v>
@@ -3915,7 +3913,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41">
         <v>2016</v>
@@ -3956,7 +3954,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>2017</v>
@@ -3997,7 +3995,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43">
         <v>2018</v>
@@ -4038,7 +4036,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44">
         <v>2019</v>
@@ -4079,7 +4077,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45">
         <v>2020</v>
@@ -4120,7 +4118,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>2010</v>
@@ -4161,7 +4159,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47">
         <v>2011</v>
@@ -4202,7 +4200,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48">
         <v>2012</v>
@@ -4243,7 +4241,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49">
         <v>2013</v>
@@ -4284,7 +4282,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50">
         <v>2014</v>
@@ -4325,7 +4323,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B51">
         <v>2015</v>
@@ -4366,7 +4364,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52">
         <v>2016</v>
@@ -4407,7 +4405,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53">
         <v>2017</v>
@@ -4448,7 +4446,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B54">
         <v>2018</v>
@@ -4489,7 +4487,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55">
         <v>2019</v>
@@ -4530,7 +4528,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B56">
         <v>2020</v>
@@ -4571,7 +4569,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B57">
         <v>2010</v>
@@ -4612,7 +4610,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>2011</v>
@@ -4653,7 +4651,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>2012</v>
@@ -4694,7 +4692,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>2013</v>
@@ -4735,7 +4733,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B61">
         <v>2014</v>
@@ -4776,7 +4774,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B62">
         <v>2015</v>
@@ -4817,7 +4815,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63">
         <v>2016</v>
@@ -4858,7 +4856,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B64">
         <v>2017</v>
@@ -4899,7 +4897,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65">
         <v>2018</v>
@@ -4940,7 +4938,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B66">
         <v>2019</v>
@@ -4981,7 +4979,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B67">
         <v>2020</v>
@@ -5022,7 +5020,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B68">
         <v>2010</v>
@@ -5063,7 +5061,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69">
         <v>2011</v>
@@ -5104,7 +5102,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B70">
         <v>2012</v>
@@ -5145,7 +5143,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B71">
         <v>2013</v>
@@ -5186,7 +5184,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B72">
         <v>2014</v>
@@ -5227,7 +5225,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B73">
         <v>2015</v>
@@ -5268,7 +5266,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B74">
         <v>2016</v>
@@ -5309,7 +5307,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75">
         <v>2017</v>
@@ -5350,7 +5348,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>2018</v>
@@ -5391,7 +5389,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77">
         <v>2019</v>
@@ -5432,7 +5430,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78">
         <v>2020</v>
@@ -5473,7 +5471,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B79">
         <v>2010</v>
@@ -5514,7 +5512,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B80">
         <v>2011</v>
@@ -5555,7 +5553,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B81">
         <v>2012</v>
@@ -5596,7 +5594,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B82">
         <v>2013</v>
@@ -5637,7 +5635,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B83">
         <v>2014</v>
@@ -5678,7 +5676,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84">
         <v>2015</v>
@@ -5719,7 +5717,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B85">
         <v>2016</v>
@@ -5760,7 +5758,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86">
         <v>2017</v>
@@ -5801,7 +5799,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B87">
         <v>2018</v>
@@ -5842,7 +5840,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B88">
         <v>2019</v>
@@ -5883,7 +5881,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B89">
         <v>2020</v>
@@ -5924,7 +5922,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B90">
         <v>2010</v>
@@ -5965,7 +5963,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B91">
         <v>2011</v>
@@ -6006,7 +6004,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92">
         <v>2012</v>
@@ -6047,7 +6045,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B93">
         <v>2013</v>
@@ -6088,7 +6086,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94">
         <v>2014</v>
@@ -6129,7 +6127,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>2015</v>
@@ -6170,7 +6168,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>2016</v>
@@ -6211,7 +6209,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>2017</v>
@@ -6252,7 +6250,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98">
         <v>2018</v>
@@ -6293,7 +6291,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99">
         <v>2019</v>
@@ -6334,7 +6332,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>2020</v>
@@ -6375,7 +6373,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>2010</v>
@@ -6416,7 +6414,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>2011</v>
@@ -6457,7 +6455,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>2012</v>
@@ -6498,7 +6496,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104">
         <v>2013</v>
@@ -6539,7 +6537,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105">
         <v>2014</v>
@@ -6580,7 +6578,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106">
         <v>2015</v>
@@ -6621,7 +6619,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107">
         <v>2016</v>
@@ -6662,7 +6660,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108">
         <v>2017</v>
@@ -6703,7 +6701,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109">
         <v>2018</v>
@@ -6744,7 +6742,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110">
         <v>2019</v>
@@ -6785,7 +6783,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B111">
         <v>2020</v>
@@ -6826,7 +6824,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B112">
         <v>2010</v>
@@ -6867,7 +6865,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B113">
         <v>2011</v>
@@ -6908,7 +6906,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B114">
         <v>2012</v>
@@ -6949,7 +6947,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B115">
         <v>2013</v>
@@ -6990,7 +6988,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B116">
         <v>2014</v>
@@ -7031,7 +7029,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B117">
         <v>2015</v>
@@ -7072,7 +7070,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B118">
         <v>2016</v>
@@ -7113,7 +7111,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B119">
         <v>2017</v>
@@ -7154,7 +7152,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B120">
         <v>2018</v>
@@ -7195,7 +7193,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B121">
         <v>2019</v>
@@ -7236,7 +7234,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B122">
         <v>2020</v>
@@ -7277,7 +7275,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B123">
         <v>2010</v>
@@ -7318,7 +7316,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B124">
         <v>2011</v>
@@ -7359,7 +7357,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B125">
         <v>2012</v>
@@ -7400,7 +7398,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B126">
         <v>2013</v>
@@ -7441,7 +7439,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B127">
         <v>2014</v>
@@ -7482,7 +7480,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B128">
         <v>2015</v>
@@ -7523,7 +7521,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B129">
         <v>2016</v>
@@ -7564,7 +7562,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B130">
         <v>2017</v>
@@ -7605,7 +7603,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B131">
         <v>2018</v>
@@ -7646,7 +7644,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B132">
         <v>2019</v>
@@ -7687,7 +7685,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B133">
         <v>2020</v>
@@ -7728,7 +7726,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B134">
         <v>2010</v>
@@ -7769,7 +7767,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B135">
         <v>2011</v>
@@ -7810,7 +7808,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B136">
         <v>2012</v>
@@ -7851,7 +7849,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B137">
         <v>2013</v>
@@ -7892,7 +7890,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B138">
         <v>2014</v>
@@ -7933,7 +7931,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B139">
         <v>2015</v>
@@ -7974,7 +7972,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B140">
         <v>2016</v>
@@ -8015,7 +8013,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B141">
         <v>2017</v>
@@ -8056,7 +8054,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B142">
         <v>2018</v>
@@ -8097,7 +8095,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B143">
         <v>2019</v>
@@ -8138,7 +8136,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B144">
         <v>2020</v>
@@ -8179,7 +8177,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B145">
         <v>2010</v>
@@ -8220,7 +8218,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B146">
         <v>2011</v>
@@ -8261,7 +8259,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B147">
         <v>2012</v>
@@ -8302,7 +8300,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B148">
         <v>2013</v>
@@ -8343,7 +8341,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B149">
         <v>2014</v>
@@ -8384,7 +8382,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B150">
         <v>2015</v>
@@ -8425,7 +8423,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B151">
         <v>2016</v>
@@ -8466,7 +8464,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B152">
         <v>2017</v>
@@ -8507,7 +8505,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B153">
         <v>2018</v>
@@ -8548,7 +8546,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B154">
         <v>2019</v>
@@ -8589,7 +8587,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B155">
         <v>2020</v>
@@ -8630,7 +8628,7 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B156">
         <v>2010</v>
@@ -8671,7 +8669,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B157">
         <v>2011</v>
@@ -8712,7 +8710,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B158">
         <v>2012</v>
@@ -8753,7 +8751,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B159">
         <v>2013</v>
@@ -8794,7 +8792,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B160">
         <v>2014</v>
@@ -8835,7 +8833,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B161">
         <v>2015</v>
@@ -8876,7 +8874,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B162">
         <v>2016</v>
@@ -8917,7 +8915,7 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B163">
         <v>2017</v>
@@ -8958,7 +8956,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B164">
         <v>2018</v>
@@ -8999,7 +8997,7 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B165">
         <v>2019</v>
@@ -9040,7 +9038,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B166">
         <v>2020</v>
@@ -9081,7 +9079,7 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B167">
         <v>2010</v>
@@ -9122,7 +9120,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B168">
         <v>2011</v>
@@ -9163,7 +9161,7 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B169">
         <v>2012</v>
@@ -9204,7 +9202,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B170">
         <v>2013</v>
@@ -9245,7 +9243,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B171">
         <v>2014</v>
@@ -9286,7 +9284,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B172">
         <v>2015</v>
@@ -9327,7 +9325,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B173">
         <v>2016</v>
@@ -9368,7 +9366,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B174">
         <v>2017</v>
@@ -9409,7 +9407,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B175">
         <v>2018</v>
@@ -9450,7 +9448,7 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B176">
         <v>2019</v>
@@ -9491,7 +9489,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B177">
         <v>2020</v>
@@ -9532,7 +9530,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B178">
         <v>2010</v>
@@ -9573,7 +9571,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B179">
         <v>2011</v>
@@ -9614,7 +9612,7 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B180">
         <v>2012</v>
@@ -9655,7 +9653,7 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B181">
         <v>2013</v>
@@ -9696,7 +9694,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B182">
         <v>2014</v>
@@ -9737,7 +9735,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B183">
         <v>2015</v>
@@ -9778,7 +9776,7 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B184">
         <v>2016</v>
@@ -9819,7 +9817,7 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B185">
         <v>2017</v>
@@ -9860,7 +9858,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B186">
         <v>2018</v>
@@ -9901,7 +9899,7 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B187">
         <v>2019</v>
@@ -9942,7 +9940,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B188">
         <v>2020</v>
@@ -9983,7 +9981,7 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B189">
         <v>2010</v>
@@ -10024,7 +10022,7 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B190">
         <v>2011</v>
@@ -10065,7 +10063,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B191">
         <v>2012</v>
@@ -10106,7 +10104,7 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B192">
         <v>2013</v>
@@ -10147,7 +10145,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B193">
         <v>2014</v>
@@ -10188,7 +10186,7 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B194">
         <v>2015</v>
@@ -10229,7 +10227,7 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B195">
         <v>2016</v>
@@ -10270,7 +10268,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B196">
         <v>2017</v>
@@ -10311,7 +10309,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B197">
         <v>2018</v>
@@ -10352,7 +10350,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B198">
         <v>2019</v>
@@ -10393,7 +10391,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B199">
         <v>2020</v>
@@ -10434,7 +10432,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B200">
         <v>2010</v>
@@ -10475,7 +10473,7 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B201">
         <v>2011</v>
@@ -10516,7 +10514,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B202">
         <v>2012</v>
@@ -10557,7 +10555,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B203">
         <v>2013</v>
@@ -10598,7 +10596,7 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B204">
         <v>2014</v>
@@ -10639,7 +10637,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B205">
         <v>2015</v>
@@ -10680,7 +10678,7 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B206">
         <v>2016</v>
@@ -10721,7 +10719,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B207">
         <v>2017</v>
@@ -10762,7 +10760,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B208">
         <v>2018</v>
@@ -10803,7 +10801,7 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B209">
         <v>2019</v>
@@ -10844,7 +10842,7 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B210">
         <v>2020</v>
@@ -10885,7 +10883,7 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B211">
         <v>2010</v>
@@ -10926,7 +10924,7 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B212">
         <v>2011</v>
@@ -10967,7 +10965,7 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B213">
         <v>2012</v>
@@ -11008,7 +11006,7 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B214">
         <v>2013</v>
@@ -11049,7 +11047,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B215">
         <v>2014</v>
@@ -11090,7 +11088,7 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B216">
         <v>2015</v>
@@ -11131,7 +11129,7 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B217">
         <v>2016</v>
@@ -11172,7 +11170,7 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B218">
         <v>2017</v>
@@ -11213,7 +11211,7 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B219">
         <v>2018</v>
@@ -11254,7 +11252,7 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B220">
         <v>2019</v>
@@ -11295,7 +11293,7 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B221">
         <v>2020</v>
@@ -11336,7 +11334,7 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B222">
         <v>2010</v>
@@ -11377,7 +11375,7 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B223">
         <v>2011</v>
@@ -11418,7 +11416,7 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B224">
         <v>2012</v>
@@ -11459,7 +11457,7 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B225">
         <v>2013</v>
@@ -11500,7 +11498,7 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B226">
         <v>2014</v>
@@ -11541,7 +11539,7 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B227">
         <v>2015</v>
@@ -11582,7 +11580,7 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B228">
         <v>2016</v>
@@ -11623,7 +11621,7 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B229">
         <v>2017</v>
@@ -11664,7 +11662,7 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B230">
         <v>2018</v>
@@ -11705,7 +11703,7 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B231">
         <v>2019</v>
@@ -11746,7 +11744,7 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B232">
         <v>2020</v>
@@ -11787,7 +11785,7 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B233">
         <v>2010</v>
@@ -11828,7 +11826,7 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B234">
         <v>2011</v>
@@ -11869,7 +11867,7 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B235">
         <v>2012</v>
@@ -11910,7 +11908,7 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B236">
         <v>2013</v>
@@ -11951,7 +11949,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B237">
         <v>2014</v>
@@ -11992,7 +11990,7 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B238">
         <v>2015</v>
@@ -12033,7 +12031,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B239">
         <v>2016</v>
@@ -12074,7 +12072,7 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B240">
         <v>2017</v>
@@ -12115,7 +12113,7 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B241">
         <v>2018</v>
@@ -12156,7 +12154,7 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B242">
         <v>2019</v>
@@ -12197,7 +12195,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B243">
         <v>2020</v>
@@ -12238,7 +12236,7 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B244">
         <v>2010</v>
@@ -12279,7 +12277,7 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B245">
         <v>2011</v>
@@ -12320,7 +12318,7 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B246">
         <v>2012</v>
@@ -12361,7 +12359,7 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B247">
         <v>2013</v>
@@ -12402,7 +12400,7 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B248">
         <v>2014</v>
@@ -12443,7 +12441,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B249">
         <v>2015</v>
@@ -12484,7 +12482,7 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B250">
         <v>2016</v>
@@ -12525,7 +12523,7 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B251">
         <v>2017</v>
@@ -12566,7 +12564,7 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B252">
         <v>2018</v>
@@ -12607,7 +12605,7 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B253">
         <v>2019</v>
@@ -12648,7 +12646,7 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B254">
         <v>2020</v>
@@ -12689,7 +12687,7 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B255">
         <v>2010</v>
@@ -12730,7 +12728,7 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B256">
         <v>2011</v>
@@ -12771,7 +12769,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B257">
         <v>2012</v>
@@ -12812,7 +12810,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B258">
         <v>2013</v>
@@ -12853,7 +12851,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B259">
         <v>2014</v>
@@ -12894,7 +12892,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B260">
         <v>2015</v>
@@ -12935,7 +12933,7 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B261">
         <v>2016</v>
@@ -12976,7 +12974,7 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B262">
         <v>2017</v>
@@ -13017,7 +13015,7 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B263">
         <v>2018</v>
@@ -13058,7 +13056,7 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B264">
         <v>2019</v>
@@ -13099,7 +13097,7 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B265">
         <v>2020</v>
@@ -13140,7 +13138,7 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B266">
         <v>2010</v>
@@ -13181,7 +13179,7 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B267">
         <v>2011</v>
@@ -13222,7 +13220,7 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B268">
         <v>2012</v>
@@ -13263,7 +13261,7 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B269">
         <v>2013</v>
@@ -13304,7 +13302,7 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B270">
         <v>2014</v>
@@ -13345,7 +13343,7 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B271">
         <v>2015</v>
@@ -13386,7 +13384,7 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B272">
         <v>2016</v>
@@ -13427,7 +13425,7 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B273">
         <v>2017</v>
@@ -13468,7 +13466,7 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B274">
         <v>2018</v>
@@ -13509,7 +13507,7 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B275">
         <v>2019</v>
@@ -13550,7 +13548,7 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B276">
         <v>2020</v>
@@ -13591,7 +13589,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B277">
         <v>2010</v>
@@ -13632,7 +13630,7 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B278">
         <v>2011</v>
@@ -13673,7 +13671,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B279">
         <v>2012</v>
@@ -13714,7 +13712,7 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B280">
         <v>2013</v>
@@ -13755,7 +13753,7 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B281">
         <v>2014</v>
@@ -13796,7 +13794,7 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B282">
         <v>2015</v>
@@ -13837,7 +13835,7 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B283">
         <v>2016</v>
@@ -13878,7 +13876,7 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B284">
         <v>2017</v>
@@ -13919,7 +13917,7 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B285">
         <v>2018</v>
@@ -13960,7 +13958,7 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B286">
         <v>2019</v>
@@ -14001,7 +13999,7 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B287">
         <v>2020</v>
@@ -14042,7 +14040,7 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B288">
         <v>2010</v>
@@ -14083,7 +14081,7 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B289">
         <v>2011</v>
@@ -14124,7 +14122,7 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B290">
         <v>2012</v>
@@ -14165,7 +14163,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B291">
         <v>2013</v>
@@ -14206,7 +14204,7 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B292">
         <v>2014</v>
@@ -14247,7 +14245,7 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B293">
         <v>2015</v>
@@ -14288,7 +14286,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B294">
         <v>2016</v>
@@ -14329,7 +14327,7 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B295">
         <v>2017</v>
@@ -14370,7 +14368,7 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B296">
         <v>2018</v>
@@ -14411,7 +14409,7 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B297">
         <v>2019</v>
@@ -14452,7 +14450,7 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B298">
         <v>2020</v>
@@ -14493,7 +14491,7 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B299">
         <v>2010</v>
@@ -14534,7 +14532,7 @@
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B300">
         <v>2011</v>
@@ -14575,7 +14573,7 @@
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B301">
         <v>2012</v>
@@ -14616,7 +14614,7 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B302">
         <v>2013</v>
@@ -14657,7 +14655,7 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B303">
         <v>2014</v>
@@ -14698,7 +14696,7 @@
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B304">
         <v>2015</v>
@@ -14739,7 +14737,7 @@
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B305">
         <v>2016</v>
@@ -14780,7 +14778,7 @@
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B306">
         <v>2017</v>
@@ -14821,7 +14819,7 @@
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B307">
         <v>2018</v>
@@ -14862,7 +14860,7 @@
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B308">
         <v>2019</v>
@@ -14903,7 +14901,7 @@
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B309">
         <v>2020</v>
@@ -14944,7 +14942,7 @@
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B310">
         <v>2010</v>
@@ -14985,7 +14983,7 @@
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B311">
         <v>2011</v>
@@ -15026,7 +15024,7 @@
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B312">
         <v>2012</v>
@@ -15067,7 +15065,7 @@
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B313">
         <v>2013</v>
@@ -15108,7 +15106,7 @@
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B314">
         <v>2014</v>
@@ -15149,7 +15147,7 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B315">
         <v>2015</v>
@@ -15190,7 +15188,7 @@
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B316">
         <v>2016</v>
@@ -15231,7 +15229,7 @@
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B317">
         <v>2017</v>
@@ -15272,7 +15270,7 @@
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B318">
         <v>2018</v>
@@ -15313,7 +15311,7 @@
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B319">
         <v>2019</v>
@@ -15354,7 +15352,7 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B320">
         <v>2020</v>
@@ -15395,7 +15393,7 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B321">
         <v>2010</v>
@@ -15436,7 +15434,7 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B322">
         <v>2011</v>
@@ -15477,7 +15475,7 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B323">
         <v>2012</v>
@@ -15518,7 +15516,7 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B324">
         <v>2013</v>
@@ -15559,7 +15557,7 @@
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B325">
         <v>2014</v>
@@ -15600,7 +15598,7 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B326">
         <v>2015</v>
@@ -15641,7 +15639,7 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B327">
         <v>2016</v>
@@ -15682,7 +15680,7 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B328">
         <v>2017</v>
@@ -15723,7 +15721,7 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B329">
         <v>2018</v>
@@ -15764,7 +15762,7 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B330">
         <v>2019</v>
@@ -15805,7 +15803,7 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B331">
         <v>2020</v>
@@ -15846,7 +15844,7 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B332">
         <v>2010</v>
@@ -15887,7 +15885,7 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B333">
         <v>2011</v>
@@ -15928,7 +15926,7 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B334">
         <v>2012</v>
@@ -15969,7 +15967,7 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B335">
         <v>2013</v>
@@ -16010,7 +16008,7 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B336">
         <v>2014</v>
@@ -16051,7 +16049,7 @@
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B337">
         <v>2015</v>
@@ -16092,7 +16090,7 @@
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B338">
         <v>2016</v>
@@ -16133,7 +16131,7 @@
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B339">
         <v>2017</v>
@@ -16174,7 +16172,7 @@
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B340">
         <v>2018</v>
@@ -16215,7 +16213,7 @@
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B341">
         <v>2019</v>
@@ -16256,7 +16254,7 @@
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B342">
         <v>2020</v>
@@ -16297,7 +16295,7 @@
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B343">
         <v>2010</v>
@@ -16338,7 +16336,7 @@
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B344">
         <v>2011</v>
@@ -16379,7 +16377,7 @@
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B345">
         <v>2012</v>
@@ -16420,7 +16418,7 @@
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B346">
         <v>2013</v>
@@ -16461,7 +16459,7 @@
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B347">
         <v>2014</v>
@@ -16502,7 +16500,7 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B348">
         <v>2015</v>
@@ -16543,7 +16541,7 @@
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B349">
         <v>2016</v>
@@ -16584,7 +16582,7 @@
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B350">
         <v>2017</v>
@@ -16625,7 +16623,7 @@
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B351">
         <v>2018</v>
@@ -16666,7 +16664,7 @@
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B352">
         <v>2019</v>
@@ -16707,7 +16705,7 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B353">
         <v>2020</v>
@@ -16748,7 +16746,7 @@
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B354">
         <v>2010</v>
@@ -16789,7 +16787,7 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B355">
         <v>2011</v>
@@ -16830,7 +16828,7 @@
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B356">
         <v>2012</v>
@@ -16871,7 +16869,7 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B357">
         <v>2013</v>
@@ -16912,7 +16910,7 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B358">
         <v>2014</v>
@@ -16953,7 +16951,7 @@
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B359">
         <v>2015</v>
@@ -16994,7 +16992,7 @@
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B360">
         <v>2016</v>
@@ -17035,7 +17033,7 @@
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B361">
         <v>2017</v>
@@ -17076,7 +17074,7 @@
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B362">
         <v>2018</v>
@@ -17117,7 +17115,7 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B363">
         <v>2019</v>
@@ -17158,7 +17156,7 @@
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B364">
         <v>2020</v>
@@ -17199,7 +17197,7 @@
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B365">
         <v>2010</v>
@@ -17240,7 +17238,7 @@
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B366">
         <v>2011</v>
@@ -17281,7 +17279,7 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B367">
         <v>2012</v>
@@ -17322,7 +17320,7 @@
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B368">
         <v>2013</v>
@@ -17363,7 +17361,7 @@
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B369">
         <v>2014</v>
@@ -17404,7 +17402,7 @@
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B370">
         <v>2015</v>
@@ -17445,7 +17443,7 @@
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B371">
         <v>2016</v>
@@ -17486,7 +17484,7 @@
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B372">
         <v>2017</v>
@@ -17527,7 +17525,7 @@
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B373">
         <v>2018</v>
@@ -17568,7 +17566,7 @@
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B374">
         <v>2019</v>
@@ -17609,7 +17607,7 @@
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B375">
         <v>2020</v>
@@ -17650,7 +17648,7 @@
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B376">
         <v>2010</v>
@@ -17691,7 +17689,7 @@
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B377">
         <v>2011</v>
@@ -17732,7 +17730,7 @@
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B378">
         <v>2012</v>
@@ -17773,7 +17771,7 @@
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B379">
         <v>2013</v>
@@ -17814,7 +17812,7 @@
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B380">
         <v>2014</v>
@@ -17855,7 +17853,7 @@
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B381">
         <v>2015</v>
@@ -17896,7 +17894,7 @@
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B382">
         <v>2016</v>
@@ -17937,7 +17935,7 @@
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B383">
         <v>2017</v>
@@ -17978,7 +17976,7 @@
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B384">
         <v>2018</v>
@@ -18019,7 +18017,7 @@
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B385">
         <v>2019</v>
@@ -18060,7 +18058,7 @@
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B386">
         <v>2020</v>
@@ -18101,7 +18099,7 @@
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B387">
         <v>2010</v>
@@ -18142,7 +18140,7 @@
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B388">
         <v>2011</v>
@@ -18183,7 +18181,7 @@
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B389">
         <v>2012</v>
@@ -18224,7 +18222,7 @@
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B390">
         <v>2013</v>
@@ -18265,7 +18263,7 @@
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B391">
         <v>2014</v>
@@ -18306,7 +18304,7 @@
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B392">
         <v>2015</v>
@@ -18347,7 +18345,7 @@
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B393">
         <v>2016</v>
@@ -18388,7 +18386,7 @@
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B394">
         <v>2017</v>
@@ -18429,7 +18427,7 @@
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B395">
         <v>2018</v>
@@ -18470,7 +18468,7 @@
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B396">
         <v>2019</v>
@@ -18511,7 +18509,7 @@
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B397">
         <v>2020</v>
@@ -18552,7 +18550,7 @@
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B398">
         <v>2010</v>
@@ -18593,7 +18591,7 @@
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B399">
         <v>2011</v>
@@ -18634,7 +18632,7 @@
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B400">
         <v>2012</v>
@@ -18675,7 +18673,7 @@
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B401">
         <v>2013</v>
@@ -18716,7 +18714,7 @@
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B402">
         <v>2014</v>
@@ -18757,7 +18755,7 @@
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B403">
         <v>2015</v>
@@ -18798,7 +18796,7 @@
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B404">
         <v>2016</v>
@@ -18839,7 +18837,7 @@
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B405">
         <v>2017</v>
@@ -18880,7 +18878,7 @@
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B406">
         <v>2018</v>
@@ -18921,7 +18919,7 @@
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B407">
         <v>2019</v>
@@ -18962,7 +18960,7 @@
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B408">
         <v>2020</v>
@@ -19003,7 +19001,7 @@
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B409">
         <v>2010</v>
@@ -19044,7 +19042,7 @@
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B410">
         <v>2011</v>
@@ -19085,7 +19083,7 @@
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B411">
         <v>2012</v>
@@ -19126,7 +19124,7 @@
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B412">
         <v>2013</v>
@@ -19167,7 +19165,7 @@
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B413">
         <v>2014</v>
@@ -19208,7 +19206,7 @@
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B414">
         <v>2015</v>
@@ -19249,7 +19247,7 @@
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B415">
         <v>2016</v>
@@ -19290,7 +19288,7 @@
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B416">
         <v>2017</v>
@@ -19331,7 +19329,7 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B417">
         <v>2018</v>
@@ -19372,7 +19370,7 @@
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B418">
         <v>2019</v>
@@ -19413,7 +19411,7 @@
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B419">
         <v>2020</v>
@@ -19454,7 +19452,7 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B420">
         <v>2010</v>
@@ -19495,7 +19493,7 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B421">
         <v>2011</v>
@@ -19536,7 +19534,7 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B422">
         <v>2012</v>
@@ -19577,7 +19575,7 @@
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B423">
         <v>2013</v>
@@ -19618,7 +19616,7 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B424">
         <v>2014</v>
@@ -19659,7 +19657,7 @@
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B425">
         <v>2015</v>
@@ -19700,7 +19698,7 @@
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B426">
         <v>2016</v>
@@ -19741,7 +19739,7 @@
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B427">
         <v>2017</v>
@@ -19782,7 +19780,7 @@
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B428">
         <v>2018</v>
@@ -19823,7 +19821,7 @@
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B429">
         <v>2019</v>
@@ -19864,7 +19862,7 @@
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B430">
         <v>2020</v>
@@ -19905,7 +19903,7 @@
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B431">
         <v>2010</v>
@@ -19946,7 +19944,7 @@
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B432">
         <v>2011</v>
@@ -19987,7 +19985,7 @@
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B433">
         <v>2012</v>
@@ -20028,7 +20026,7 @@
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B434">
         <v>2013</v>
@@ -20069,7 +20067,7 @@
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B435">
         <v>2014</v>
@@ -20110,7 +20108,7 @@
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B436">
         <v>2015</v>
@@ -20151,7 +20149,7 @@
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B437">
         <v>2016</v>
@@ -20192,7 +20190,7 @@
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B438">
         <v>2017</v>
@@ -20233,7 +20231,7 @@
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B439">
         <v>2018</v>
@@ -20274,7 +20272,7 @@
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B440">
         <v>2019</v>
@@ -20315,7 +20313,7 @@
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B441">
         <v>2020</v>
@@ -20356,7 +20354,7 @@
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B442">
         <v>2010</v>
@@ -20397,7 +20395,7 @@
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B443">
         <v>2011</v>
@@ -20438,7 +20436,7 @@
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B444">
         <v>2012</v>
@@ -20479,7 +20477,7 @@
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B445">
         <v>2013</v>
@@ -20520,7 +20518,7 @@
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B446">
         <v>2014</v>
@@ -20561,7 +20559,7 @@
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B447">
         <v>2015</v>
@@ -20602,7 +20600,7 @@
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B448">
         <v>2016</v>
@@ -20643,7 +20641,7 @@
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B449">
         <v>2017</v>
@@ -20684,7 +20682,7 @@
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B450">
         <v>2018</v>
@@ -20725,7 +20723,7 @@
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B451">
         <v>2019</v>
@@ -20766,7 +20764,7 @@
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B452">
         <v>2020</v>
@@ -20807,7 +20805,7 @@
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B453">
         <v>2010</v>
@@ -20848,7 +20846,7 @@
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B454">
         <v>2011</v>
@@ -20889,7 +20887,7 @@
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B455">
         <v>2012</v>
@@ -20930,7 +20928,7 @@
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B456">
         <v>2013</v>
@@ -20971,7 +20969,7 @@
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B457">
         <v>2014</v>
@@ -21012,7 +21010,7 @@
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B458">
         <v>2015</v>
@@ -21053,7 +21051,7 @@
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B459">
         <v>2016</v>
@@ -21094,7 +21092,7 @@
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B460">
         <v>2017</v>
@@ -21135,7 +21133,7 @@
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B461">
         <v>2018</v>
@@ -21176,7 +21174,7 @@
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B462">
         <v>2019</v>
@@ -21217,7 +21215,7 @@
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B463">
         <v>2020</v>
@@ -21258,7 +21256,7 @@
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B464">
         <v>2010</v>
@@ -21299,7 +21297,7 @@
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B465">
         <v>2011</v>
@@ -21340,7 +21338,7 @@
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B466">
         <v>2012</v>
@@ -21381,7 +21379,7 @@
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B467">
         <v>2013</v>
@@ -21422,7 +21420,7 @@
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B468">
         <v>2014</v>
@@ -21463,7 +21461,7 @@
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B469">
         <v>2015</v>
@@ -21504,7 +21502,7 @@
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B470">
         <v>2016</v>
@@ -21545,7 +21543,7 @@
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B471">
         <v>2017</v>
@@ -21586,7 +21584,7 @@
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B472">
         <v>2018</v>
@@ -21627,7 +21625,7 @@
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B473">
         <v>2019</v>
@@ -21668,7 +21666,7 @@
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B474">
         <v>2020</v>
@@ -21709,7 +21707,7 @@
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B475">
         <v>2010</v>
@@ -21750,7 +21748,7 @@
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B476">
         <v>2011</v>
@@ -21791,7 +21789,7 @@
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B477">
         <v>2012</v>
@@ -21832,7 +21830,7 @@
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B478">
         <v>2013</v>
@@ -21873,7 +21871,7 @@
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B479">
         <v>2014</v>
@@ -21914,7 +21912,7 @@
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B480">
         <v>2015</v>
@@ -21955,7 +21953,7 @@
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B481">
         <v>2016</v>
@@ -21996,7 +21994,7 @@
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B482">
         <v>2017</v>
@@ -22037,7 +22035,7 @@
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B483">
         <v>2018</v>
@@ -22078,7 +22076,7 @@
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B484">
         <v>2019</v>
@@ -22119,7 +22117,7 @@
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B485">
         <v>2020</v>
@@ -22160,7 +22158,7 @@
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B486">
         <v>2010</v>
@@ -22201,7 +22199,7 @@
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B487">
         <v>2011</v>
@@ -22242,7 +22240,7 @@
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B488">
         <v>2012</v>
@@ -22283,7 +22281,7 @@
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B489">
         <v>2013</v>
@@ -22324,7 +22322,7 @@
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B490">
         <v>2014</v>
@@ -22365,7 +22363,7 @@
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B491">
         <v>2015</v>
@@ -22406,7 +22404,7 @@
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B492">
         <v>2016</v>
@@ -22447,7 +22445,7 @@
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B493">
         <v>2017</v>
@@ -22488,7 +22486,7 @@
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B494">
         <v>2018</v>
@@ -22529,7 +22527,7 @@
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B495">
         <v>2019</v>
@@ -22570,7 +22568,7 @@
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B496">
         <v>2020</v>
@@ -22611,7 +22609,7 @@
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B497">
         <v>2010</v>
@@ -22652,7 +22650,7 @@
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B498">
         <v>2011</v>
@@ -22693,7 +22691,7 @@
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B499">
         <v>2012</v>
@@ -22734,7 +22732,7 @@
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B500">
         <v>2013</v>
@@ -22775,7 +22773,7 @@
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B501">
         <v>2014</v>
@@ -22816,7 +22814,7 @@
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B502">
         <v>2015</v>
@@ -22857,7 +22855,7 @@
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B503">
         <v>2016</v>
@@ -22898,7 +22896,7 @@
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B504">
         <v>2017</v>
@@ -22939,7 +22937,7 @@
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B505">
         <v>2018</v>
@@ -22980,7 +22978,7 @@
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B506">
         <v>2019</v>
@@ -23021,7 +23019,7 @@
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B507">
         <v>2020</v>
@@ -23062,7 +23060,7 @@
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B508">
         <v>2010</v>
@@ -23103,7 +23101,7 @@
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B509">
         <v>2011</v>
@@ -23144,7 +23142,7 @@
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B510">
         <v>2012</v>
@@ -23185,7 +23183,7 @@
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B511">
         <v>2013</v>
@@ -23226,7 +23224,7 @@
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B512">
         <v>2014</v>
@@ -23267,7 +23265,7 @@
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B513">
         <v>2015</v>
@@ -23308,7 +23306,7 @@
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B514">
         <v>2016</v>
@@ -23349,7 +23347,7 @@
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B515">
         <v>2017</v>
@@ -23390,7 +23388,7 @@
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B516">
         <v>2018</v>
@@ -23431,7 +23429,7 @@
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B517">
         <v>2019</v>
@@ -23472,7 +23470,7 @@
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B518">
         <v>2020</v>
@@ -23513,7 +23511,7 @@
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B519">
         <v>2010</v>
@@ -23554,7 +23552,7 @@
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B520">
         <v>2011</v>
@@ -23595,7 +23593,7 @@
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B521">
         <v>2012</v>
@@ -23636,7 +23634,7 @@
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B522">
         <v>2013</v>
@@ -23677,7 +23675,7 @@
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B523">
         <v>2014</v>
@@ -23718,7 +23716,7 @@
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B524">
         <v>2015</v>
@@ -23759,7 +23757,7 @@
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B525">
         <v>2016</v>
@@ -23800,7 +23798,7 @@
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B526">
         <v>2017</v>
@@ -23841,7 +23839,7 @@
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B527">
         <v>2018</v>
@@ -23882,7 +23880,7 @@
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B528">
         <v>2019</v>
@@ -23923,7 +23921,7 @@
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B529">
         <v>2020</v>
@@ -23964,7 +23962,7 @@
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B530">
         <v>2010</v>
@@ -24005,7 +24003,7 @@
     </row>
     <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B531">
         <v>2011</v>
@@ -24046,7 +24044,7 @@
     </row>
     <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B532">
         <v>2012</v>
@@ -24087,7 +24085,7 @@
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B533">
         <v>2013</v>
@@ -24128,7 +24126,7 @@
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B534">
         <v>2014</v>
@@ -24169,7 +24167,7 @@
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B535">
         <v>2015</v>
@@ -24210,7 +24208,7 @@
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B536">
         <v>2016</v>
@@ -24251,7 +24249,7 @@
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B537">
         <v>2017</v>
@@ -24292,7 +24290,7 @@
     </row>
     <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B538">
         <v>2018</v>
@@ -24333,7 +24331,7 @@
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B539">
         <v>2019</v>
@@ -24374,7 +24372,7 @@
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B540">
         <v>2020</v>
@@ -24415,7 +24413,7 @@
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B541">
         <v>2010</v>
@@ -24456,7 +24454,7 @@
     </row>
     <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B542">
         <v>2011</v>
@@ -24497,7 +24495,7 @@
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B543">
         <v>2012</v>
@@ -24538,7 +24536,7 @@
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B544">
         <v>2013</v>
@@ -24579,7 +24577,7 @@
     </row>
     <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B545">
         <v>2014</v>
@@ -24620,7 +24618,7 @@
     </row>
     <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B546">
         <v>2015</v>
@@ -24661,7 +24659,7 @@
     </row>
     <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B547">
         <v>2016</v>
@@ -24702,7 +24700,7 @@
     </row>
     <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B548">
         <v>2017</v>
@@ -24743,7 +24741,7 @@
     </row>
     <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B549">
         <v>2018</v>
@@ -24784,7 +24782,7 @@
     </row>
     <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B550">
         <v>2019</v>
@@ -24825,7 +24823,7 @@
     </row>
     <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B551">
         <v>2020</v>
@@ -24866,7 +24864,7 @@
     </row>
     <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B552">
         <v>2010</v>
@@ -24907,7 +24905,7 @@
     </row>
     <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B553">
         <v>2011</v>
@@ -24948,7 +24946,7 @@
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B554">
         <v>2012</v>
@@ -24989,7 +24987,7 @@
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B555">
         <v>2013</v>
@@ -25030,7 +25028,7 @@
     </row>
     <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B556">
         <v>2014</v>
@@ -25071,7 +25069,7 @@
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B557">
         <v>2015</v>
@@ -25112,7 +25110,7 @@
     </row>
     <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B558">
         <v>2016</v>
@@ -25153,7 +25151,7 @@
     </row>
     <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B559">
         <v>2017</v>
@@ -25194,7 +25192,7 @@
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B560">
         <v>2018</v>
@@ -25235,7 +25233,7 @@
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B561">
         <v>2019</v>
@@ -25276,7 +25274,7 @@
     </row>
     <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B562">
         <v>2020</v>
